--- a/Mock.xlsx
+++ b/Mock.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SachinDev\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SachinDev\Desktop\firstfile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35FEFECC-83FF-4955-99EF-08CC019472DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EECA29-0C04-4875-80B1-9AA1938A415A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F3C2EC33-7ACE-4E47-A028-6F096BC4F424}"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{F3C2EC33-7ACE-4E47-A028-6F096BC4F424}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
